--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl13-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl13-Ccr10.xlsx
@@ -543,40 +543,40 @@
         <v>12.139396</v>
       </c>
       <c r="I2">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="J2">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N2">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O2">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P2">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q2">
-        <v>0.9233710173440001</v>
+        <v>4.284331402666222</v>
       </c>
       <c r="R2">
-        <v>8.310339156096001</v>
+        <v>38.558982623996</v>
       </c>
       <c r="S2">
-        <v>0.105510415530436</v>
+        <v>0.2588725690957427</v>
       </c>
       <c r="T2">
-        <v>0.105510415530436</v>
+        <v>0.2588725690957427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>12.139396</v>
       </c>
       <c r="I3">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="J3">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,10 +623,10 @@
         <v>3.010662</v>
       </c>
       <c r="O3">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P3">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q3">
         <v>4.060846471127999</v>
@@ -635,10 +635,10 @@
         <v>36.547618240152</v>
       </c>
       <c r="S3">
-        <v>0.4640188943838134</v>
+        <v>0.2453689175468727</v>
       </c>
       <c r="T3">
-        <v>0.4640188943838134</v>
+        <v>0.2453689175468728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,10 +667,10 @@
         <v>12.139396</v>
       </c>
       <c r="I4">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="J4">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N4">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O4">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P4">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q4">
-        <v>2.261338826276</v>
+        <v>0.198090663928</v>
       </c>
       <c r="R4">
-        <v>20.352049436484</v>
+        <v>1.782815975352</v>
       </c>
       <c r="S4">
-        <v>0.258395373835522</v>
+        <v>0.01196925127057399</v>
       </c>
       <c r="T4">
-        <v>0.258395373835522</v>
+        <v>0.01196925127057399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5656100000000001</v>
+        <v>0.155986</v>
       </c>
       <c r="H5">
-        <v>1.69683</v>
+        <v>0.467958</v>
       </c>
       <c r="I5">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="J5">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N5">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O5">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P5">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q5">
-        <v>0.12906767712</v>
+        <v>0.1651554290286667</v>
       </c>
       <c r="R5">
-        <v>1.16160909408</v>
+        <v>1.486398861258</v>
       </c>
       <c r="S5">
-        <v>0.01474811748331711</v>
+        <v>0.009979202399271393</v>
       </c>
       <c r="T5">
-        <v>0.0147481174833171</v>
+        <v>0.009979202399271395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5656100000000001</v>
+        <v>0.155986</v>
       </c>
       <c r="H6">
-        <v>1.69683</v>
+        <v>0.467958</v>
       </c>
       <c r="I6">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="J6">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,22 +809,22 @@
         <v>3.010662</v>
       </c>
       <c r="O6">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P6">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q6">
-        <v>0.5676201779400001</v>
+        <v>0.156540374244</v>
       </c>
       <c r="R6">
-        <v>5.10858160146</v>
+        <v>1.408863368196</v>
       </c>
       <c r="S6">
-        <v>0.0648599963752139</v>
+        <v>0.009458654114043194</v>
       </c>
       <c r="T6">
-        <v>0.0648599963752139</v>
+        <v>0.009458654114043195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5656100000000001</v>
+        <v>0.155986</v>
       </c>
       <c r="H7">
-        <v>1.69683</v>
+        <v>0.467958</v>
       </c>
       <c r="I7">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="J7">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N7">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O7">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P7">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q7">
-        <v>0.3160871892300001</v>
+        <v>0.007636138643999999</v>
       </c>
       <c r="R7">
-        <v>2.84478470307</v>
+        <v>0.06872524779599999</v>
       </c>
       <c r="S7">
-        <v>0.03611819090384142</v>
+        <v>0.0004613991409519273</v>
       </c>
       <c r="T7">
-        <v>0.03611819090384142</v>
+        <v>0.0004613991409519274</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2754046666666667</v>
+        <v>3.636334333333334</v>
       </c>
       <c r="H8">
-        <v>0.826214</v>
+        <v>10.909003</v>
       </c>
       <c r="I8">
-        <v>0.05634901148785605</v>
+        <v>0.463890006432544</v>
       </c>
       <c r="J8">
-        <v>0.05634901148785604</v>
+        <v>0.463890006432544</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N8">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O8">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P8">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q8">
-        <v>0.06284514169600001</v>
+        <v>3.850091398672556</v>
       </c>
       <c r="R8">
-        <v>0.5656062752640001</v>
+        <v>34.650822588053</v>
       </c>
       <c r="S8">
-        <v>0.007181097186142018</v>
+        <v>0.232634443499756</v>
       </c>
       <c r="T8">
-        <v>0.007181097186142017</v>
+        <v>0.2326344434997561</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2754046666666667</v>
+        <v>3.636334333333334</v>
       </c>
       <c r="H9">
-        <v>0.826214</v>
+        <v>10.909003</v>
       </c>
       <c r="I9">
-        <v>0.05634901148785605</v>
+        <v>0.463890006432544</v>
       </c>
       <c r="J9">
-        <v>0.05634901148785604</v>
+        <v>0.463890006432544</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>3.010662</v>
       </c>
       <c r="O9">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P9">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q9">
-        <v>0.2763834548520001</v>
+        <v>3.649257865554</v>
       </c>
       <c r="R9">
-        <v>2.487451093668</v>
+        <v>32.843320789986</v>
       </c>
       <c r="S9">
-        <v>0.03158138236897685</v>
+        <v>0.2204994595798331</v>
       </c>
       <c r="T9">
-        <v>0.03158138236897684</v>
+        <v>0.2204994595798332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2754046666666667</v>
+        <v>3.636334333333334</v>
       </c>
       <c r="H10">
-        <v>0.826214</v>
+        <v>10.909003</v>
       </c>
       <c r="I10">
-        <v>0.05634901148785605</v>
+        <v>0.463890006432544</v>
       </c>
       <c r="J10">
-        <v>0.05634901148785604</v>
+        <v>0.463890006432544</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N10">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O10">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P10">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q10">
-        <v>0.153907970134</v>
+        <v>0.178013110954</v>
       </c>
       <c r="R10">
-        <v>1.385171731206</v>
+        <v>1.602117998586</v>
       </c>
       <c r="S10">
-        <v>0.01758653193273719</v>
+        <v>0.01075610335295475</v>
       </c>
       <c r="T10">
-        <v>0.01758653193273718</v>
+        <v>0.01075610335295475</v>
       </c>
     </row>
   </sheetData>
